--- a/src/app/testEN.xlsx
+++ b/src/app/testEN.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="26">
   <si>
     <t>Name</t>
   </si>
@@ -30,15 +30,6 @@
     <t>Specialty</t>
   </si>
   <si>
-    <t>STUDENT</t>
-  </si>
-  <si>
-    <t>VOLUNTEER</t>
-  </si>
-  <si>
-    <t>TEACHER</t>
-  </si>
-  <si>
     <t>Foo</t>
   </si>
   <si>
@@ -73,6 +64,39 @@
   </si>
   <si>
     <t>Bar10</t>
+  </si>
+  <si>
+    <t>RANDOM1</t>
+  </si>
+  <si>
+    <t>RANDOM2</t>
+  </si>
+  <si>
+    <t>RANDOM3</t>
+  </si>
+  <si>
+    <t>RANDOM4</t>
+  </si>
+  <si>
+    <t>RANDOM5</t>
+  </si>
+  <si>
+    <t>RANDOM6</t>
+  </si>
+  <si>
+    <t>RANDOM7</t>
+  </si>
+  <si>
+    <t>RANDOM8</t>
+  </si>
+  <si>
+    <t>RANDOM9</t>
+  </si>
+  <si>
+    <t>RANDOM10</t>
+  </si>
+  <si>
+    <t>RANDOM11</t>
   </si>
 </sst>
 </file>
@@ -415,7 +439,7 @@
   <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N11" sqref="N11"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -437,123 +461,123 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C2" t="s">
-        <v>3</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C3" t="s">
-        <v>4</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C4" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
         <v>6</v>
       </c>
-      <c r="B5" t="s">
-        <v>9</v>
-      </c>
       <c r="C5" t="s">
-        <v>5</v>
+        <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B6" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C6" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B7" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C7" t="s">
-        <v>5</v>
+        <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B8" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C8" t="s">
-        <v>4</v>
+        <v>21</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B9" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C9" t="s">
-        <v>3</v>
+        <v>22</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B10" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C10" t="s">
-        <v>3</v>
+        <v>23</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B11" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C11" t="s">
-        <v>4</v>
+        <v>24</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B12" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C12" t="s">
-        <v>3</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>
